--- a/reports/fruitTrees/siberianapricot/siberianapricot-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/siberianapricot/siberianapricot-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450'</t>
+    <t xml:space="preserve">26.11.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN1</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT1G07400'</t>
+    <t xml:space="preserve">19.1.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT1G07400</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G08980</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">AMI1</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2.1.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.auxin.biosynthesis.indole-3-acetamide (IAM) pathway.indole-3-acetamide hydrolase *(AMI1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: indole-3-acetamide hydrolase *(AMI1) &amp; original description: | AT1G08980'</t>
+    <t xml:space="preserve">10.2.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.auxin.biosynthesis.indole-3-acetamide (IAM) pathway.indole-3-acetamide hydrolase *(AMI1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: indole-3-acetamide hydrolase *(AMI1) &amp; original description: | AT1G08980</t>
   </si>
   <si>
     <t xml:space="preserve">TOC64-I | TRANSLOCON AT THE OUTER MEMBRANE OF CHLOROPLASTS 64-I | ARABIDOPSIS THALIANA TRANSLOCON AT THE OUTER MEMBRANE OF CHLOROPLASTS 64-I | AMIDASE-LIKE PROTEIN 1 | ATAMI1 | ATTOC64-I</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">AGO1</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5.1.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA homeostasis.mRNA silencing.miRNA pathway.RNA-induced silencing complex (RISC) assembly and export.miRNA recruiting factor *(AGO1/AGO10)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: miRNA recruiting factor *(AGO) of RNA-induced silencing complex (RISC) assembly &amp; original description: | AT1G48410'</t>
+    <t xml:space="preserve">16.5.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA homeostasis.mRNA silencing.miRNA pathway.RNA-induced silencing complex (RISC) assembly and export.miRNA recruiting factor *(AGO1/AGO10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: miRNA recruiting factor *(AGO) of RNA-induced silencing complex (RISC) assembly &amp; original description: | AT1G48410</t>
   </si>
   <si>
     <t xml:space="preserve">AtAGO1 | ICU9</t>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">ARR-B</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.2.1.3.2' | '14.5.3.2.8'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein' | 'RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190'</t>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
   </si>
   <si>
     <t xml:space="preserve">RR19</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">BGLU18</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400'</t>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
   </si>
   <si>
     <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">AT1G59860</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT1G59860'</t>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT1G59860</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G68130</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">IDD14</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.2.1.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.zinc-coordinating DNA-binding domain.Cys2-His2-related domain.IDD/IDZ-type transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: C2H2 class-IDD/IDZ transcription factor &amp; original description: | AT1G68130'</t>
+    <t xml:space="preserve">14.5.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.zinc-coordinating DNA-binding domain.Cys2-His2-related domain.IDD/IDZ-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: C2H2 class-IDD/IDZ transcription factor &amp; original description: | AT1G68130</t>
   </si>
   <si>
     <t xml:space="preserve">IDD14beta | IDD14alpha | indeterminate(ID)-domain 14 | AtIDD14</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">AGO7</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA homeostasis.mRNA silencing.transacting siRNA pathway.regulatory protein *(AGO7)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(AGO7) of transacting siRNA pathway &amp; original description: | AT1G69440'</t>
+    <t xml:space="preserve">16.5.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA homeostasis.mRNA silencing.transacting siRNA pathway.regulatory protein *(AGO7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(AGO7) of transacting siRNA pathway &amp; original description: | AT1G69440</t>
   </si>
   <si>
     <t xml:space="preserve">ZIPPY | ZIP</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">JASSY</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.jasmonic acid.biosynthesis.oxophytodienoate export protein *(JASSY)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: oxophytodienoate export protein *(JASSY) &amp; original description: | AT1G70480'</t>
+    <t xml:space="preserve">10.7.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.jasmonic acid.biosynthesis.oxophytodienoate export protein *(JASSY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: oxophytodienoate export protein *(JASSY) &amp; original description: | AT1G70480</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G72260</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">PR13</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260'</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260</t>
   </si>
   <si>
     <t xml:space="preserve">THI2.1</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">DR4</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3.7.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330'</t>
+    <t xml:space="preserve">19.3.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330</t>
   </si>
   <si>
     <t xml:space="preserve">ATDR4 | drought-repressed 4</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">AT2G19310</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310'</t>
+    <t xml:space="preserve">19.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G22000</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">PEP</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000'</t>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP6</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">LST8</t>
   </si>
   <si>
-    <t xml:space="preserve">27.10.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040'</t>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
   </si>
   <si>
     <t xml:space="preserve">LST8-2</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">PAB4</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3.2.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein biosynthesis.translation initiation.mRNA loading.mRNA poly-A-tail binding factor *(PABP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: mRNA poly-A-tail binding factor *(PABP) &amp; original description: | AT2G23350'</t>
+    <t xml:space="preserve">17.3.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein biosynthesis.translation initiation.mRNA loading.mRNA poly-A-tail binding factor *(PABP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: mRNA poly-A-tail binding factor *(PABP) &amp; original description: | AT2G23350</t>
   </si>
   <si>
     <t xml:space="preserve">POLY(A) BINDING PROTEIN 4 | PABP4</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">REM12</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.9.2.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680'</t>
+    <t xml:space="preserve">14.5.9.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G26020</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">PDF1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.3.3.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020'</t>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2b</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">AT2G27070</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT2G27070' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT2G27070'</t>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT2G27070 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT2G27070</t>
   </si>
   <si>
     <t xml:space="preserve">RR13</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">CML12</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
   </si>
   <si>
     <t xml:space="preserve">TCH3</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">JR1</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
   </si>
   <si>
     <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">ETP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
   </si>
   <si>
     <t xml:space="preserve">ETP2</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">AT3G18980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
   </si>
   <si>
     <t xml:space="preserve">ETP1</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">NIT1</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1.2.5' | '50.3.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clade-specific metabolism.Brassicaceae.glucosinolate degradation.nitrilase *(NIT)' | 'Enzyme classification.EC_3 hydrolases.EC_3-5 hydrolase acting on carbon-nitrogen bond, other than peptide bond'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: nitrilase *(NIT) &amp; original description: | AT3G44310' | 'mercator4v7.0: EC_3.5 hydrolase acting on carbon-nitrogen bond, other than peptide bond &amp; original description: | AT3G44310'</t>
+    <t xml:space="preserve">30.1.2.5 | 50.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clade-specific metabolism.Brassicaceae.glucosinolate degradation.nitrilase *(NIT) | Enzyme classification.EC_3 hydrolases.EC_3-5 hydrolase acting on carbon-nitrogen bond, other than peptide bond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: nitrilase *(NIT) &amp; original description: | AT3G44310 | mercator4v7.0: EC_3.5 hydrolase acting on carbon-nitrogen bond, other than peptide bond &amp; original description: | AT3G44310</t>
   </si>
   <si>
     <t xml:space="preserve">NITI | A. THALIANA NITRILASE 1 | ATNIT1</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">AT3G46230</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230'</t>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230</t>
   </si>
   <si>
     <t xml:space="preserve">HSP17.4</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">AT3G62670</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670</t>
   </si>
   <si>
     <t xml:space="preserve">RR20</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">NUDT7</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9.6.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coenzyme metabolism.NAD/NADP biosynthesis.NAD homeostasis.NADH pyrophosphohydrolase *(NUDX2/6/7)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: NADH pyrophosphohydrolase *(NUDX2/6/7) &amp; original description: | AT4G12720'</t>
+    <t xml:space="preserve">7.9.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenzyme metabolism.NAD/NADP biosynthesis.NAD homeostasis.NADH pyrophosphohydrolase *(NUDX2/6/7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: NADH pyrophosphohydrolase *(NUDX2/6/7) &amp; original description: | AT4G12720</t>
   </si>
   <si>
     <t xml:space="preserve">AT4G19395</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">LSD1</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.Programmed Cell Death (PCD) system.regulatory protein *(LSD/LOL)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(LSD/LOL) of programmed cell death &amp; original description: | AT4G20380'</t>
+    <t xml:space="preserve">27.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.Programmed Cell Death (PCD) system.regulatory protein *(LSD/LOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(LSD/LOL) of programmed cell death &amp; original description: | AT4G20380</t>
   </si>
   <si>
     <t xml:space="preserve">AT4G26070</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">MKK1</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4.4.1.3' | '27.14.2.1' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell division.cytokinesis.phragmoplast disassembly.NACK-PQR signalling pathway.MAP-kinase protein kinase *(NQK/ANQ)' | 'Multi-process regulation.MAP kinase cascade signalling.MAP2K protein kinase activities.MAP2K protein kinase *(MKK1/2/6)' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: MAP-kinase protein kinase *(NQK/ANQ) &amp; original description: | AT4G26070' | 'mercator4v7.0: MAP2K protein kinase *(MKK1/2/6) &amp; original description: | AT4G26070' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT4G26070'</t>
+    <t xml:space="preserve">12.4.4.1.3 | 27.14.2.1 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell division.cytokinesis.phragmoplast disassembly.NACK-PQR signalling pathway.MAP-kinase protein kinase *(NQK/ANQ) | Multi-process regulation.MAP kinase cascade signalling.MAP2K protein kinase activities.MAP2K protein kinase *(MKK1/2/6) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: MAP-kinase protein kinase *(NQK/ANQ) &amp; original description: | AT4G26070 | mercator4v7.0: MAP2K protein kinase *(MKK1/2/6) &amp; original description: | AT4G26070 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT4G26070</t>
   </si>
   <si>
     <t xml:space="preserve">MEK1</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">GAMT1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.3.2' | '50.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT)' | 'Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420'</t>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT1</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">AT5G09976</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G09978</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
   </si>
   <si>
     <t xml:space="preserve">PEP7</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">AT5G09980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP4</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">AT5G09990</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP5</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">CIPK26</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.4.3' | '27.8.1.6.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.CAMK protein kinase activities.SnRK3 SNF1-related protein kinase' | 'Multi-process regulation.calcium homeostasis.Ca2+-dependent signalling.CBL-CIPK calcium sensor and kinase pathways.CBL-dependent protein kinase *(CIPK)' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SnRK3 SNF1-related protein kinase &amp; original description: | AT5G21326' | 'mercator4v7.0: CBL-dependent protein kinase *(CIPK) &amp; original description: | AT5G21326' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G21326'</t>
+    <t xml:space="preserve">18.4.4.3 | 27.8.1.6.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.CAMK protein kinase activities.SnRK3 SNF1-related protein kinase | Multi-process regulation.calcium homeostasis.Ca2+-dependent signalling.CBL-CIPK calcium sensor and kinase pathways.CBL-dependent protein kinase *(CIPK) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SnRK3 SNF1-related protein kinase &amp; original description: | AT5G21326 | mercator4v7.0: CBL-dependent protein kinase *(CIPK) &amp; original description: | AT5G21326 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G21326</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G21960</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">ERF016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.7.10.2.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-hairpin exposed by alpha/beta-scaffold structure.ERF transcription factor activity.subgroup ERF-II transcriptional regulator activities.subgroup ERF-II transcription factor *(ERF16/17/18)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: subgroup ERF-II transcription factor *(ERF16/17/18) &amp; original description: | AT5G21960'</t>
+    <t xml:space="preserve">14.5.7.10.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-hairpin exposed by alpha/beta-scaffold structure.ERF transcription factor activity.subgroup ERF-II transcriptional regulator activities.subgroup ERF-II transcription factor *(ERF16/17/18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: subgroup ERF-II transcription factor *(ERF16/17/18) &amp; original description: | AT5G21960</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G44420</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
   </si>
   <si>
     <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">AT5G44430</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2c</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">DHNAT2</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16.6'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coenzyme metabolism.phylloquinone biosynthesis.1,4-dihydroxy-2-naphthoyl-CoA thioesterase *(MenH/DHNAT)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: 1,4-dihydroxy-2-naphthoyl-CoA thioesterase *(MenH/DHNAT) &amp; original description: | AT5G48950'</t>
+    <t xml:space="preserve">7.16.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenzyme metabolism.phylloquinone biosynthesis.1,4-dihydroxy-2-naphthoyl-CoA thioesterase *(MenH/DHNAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: 1,4-dihydroxy-2-naphthoyl-CoA thioesterase *(MenH/DHNAT) &amp; original description: | AT5G48950</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G49615</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">AT5G56300</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300'</t>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT2</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">HSP18.1-CI | HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720'</t>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720</t>
   </si>
   <si>
     <t xml:space="preserve">HSP18.2</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">LECRK19</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.1.19.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300'</t>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
   </si>
   <si>
     <t xml:space="preserve">LecRK-I.9</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">AT5G64890</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP2</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">AT5G64900</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP1</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">AT5G64905</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP3</t>
@@ -779,15 +779,6 @@
     <t xml:space="preserve">clpP1</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3.2.7.1.1' | '50.3.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.serine peptidase activities.chloroplast Clp-type protease complex.ClpP proteolytic core activities.proteolytic component *(ClpP1)' | 'Enzyme classification.EC_3 hydrolases.EC_3-4 hydrolase acting on peptide bond (peptidase)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: proteolytic component *(ClpP1) of chloroplast Clp-type protease complex &amp; original description: | ATCG00670' | 'mercator4v7.0: EC_3.4 hydrolase acting on peptide bond (peptidase) &amp; original description: | ATCG00670'</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCLPP</t>
   </si>
   <si>
@@ -798,15 +789,6 @@
   </si>
   <si>
     <t xml:space="preserve">psbB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.2.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photosynthesis.photophosphorylation.photosystem II.PS-II complex.reaction center complex.component *(CP47/PsbB)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: component *(PsbB/CP47) of PS-II reaction center complex &amp; original description: | ATCG00680'</t>
   </si>
   <si>
     <t xml:space="preserve">PSBB</t>
@@ -2426,43 +2408,31 @@
       <c r="C55" t="s">
         <v>254</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" t="s">
         <v>255</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>256</v>
-      </c>
-      <c r="F55" t="s">
-        <v>257</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
-      </c>
-      <c r="H55" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
-      </c>
-      <c r="D56" t="s">
-        <v>262</v>
-      </c>
-      <c r="E56" t="s">
-        <v>263</v>
-      </c>
-      <c r="F56" t="s">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H56"/>
     </row>
